--- a/app/templates/BlockTemplate.xlsx
+++ b/app/templates/BlockTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\EPUERP\code\BlockAtmGuard-github\blockatm-guard\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02202458-0FA4-430E-A3E3-3F47874F0FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A0100C-E06B-4FC2-AA2A-3AAA6A5B4D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:H723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2811,12 +2811,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"DAI,USDT,USDC,TUSD,BUSD,FRAX,USDP,PAXG,GUSD"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{20E5E44F-F017-464E-89E4-79097F874C7E}">
       <formula1>"Ethereum Mainnet,Ethereum Goerli,TRON Shasta Testnet,TRON Mainnet,Arbitrum One Mainnet,Arbitrum Sepolia Testnet,Optimism Mainnet,Optimism Sepolia Testnet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1 H3:H1048576 H2" xr:uid="{3D39BD27-87C1-4316-A0CD-F75E2BB1E108}">
+      <formula1>"DAI,USDT,USDC,TUSD,FRAX,USDJ,USDD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
